--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/game_state/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2D8B257-9379-4500-A8F1-8FB2DD6F3641}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8444D682-70CF-4F23-87D9-C85757A3DBFC}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="nonsortable" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nonsortable!$A$1:$F$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nonsortable!$A$1:$F$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sortable!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="68">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -194,6 +194,57 @@
   </si>
   <si>
     <t>MC</t>
+  </si>
+  <si>
+    <t>Manager challenge: Tag-up play</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Umpire review: Close play at 1st</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Manager challenge: Grounds rule</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Manager challenge: Slide interference</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Manager challenge: Trap play in outfield</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Manager challenge: Catchers Interference</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Postponed</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Rain? Idk</t>
   </si>
 </sst>
 </file>
@@ -229,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,11 +612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8913D47-F4A1-4594-AAA9-B59ADA751E77}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,10 +818,10 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,10 +835,10 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,13 +849,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,16 +866,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,56 +883,198 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F23" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -893,11 +1086,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,10 +1251,10 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,105 +1262,196 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F17" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
-  <mergeCells count="9">
+  <autoFilter ref="A1:F23" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <mergeCells count="13">
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B5:B21"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="A5:A21"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8444D682-70CF-4F23-87D9-C85757A3DBFC}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46D6F5E6-C922-4F65-A3A6-17C4E419CEB7}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="12585" yWindow="2955" windowWidth="19470" windowHeight="14790" activeTab="1" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="sortable" sheetId="1" r:id="rId1"/>
     <sheet name="nonsortable" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nonsortable!$A$1:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">nonsortable!$A$1:$F$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sortable!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="75">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -245,6 +245,27 @@
   </si>
   <si>
     <t>Rain? Idk</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Completed Early: Rain</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Manager challenge: Home-plate collision</t>
+  </si>
+  <si>
+    <t>Delayed Start: Ceremony</t>
+  </si>
+  <si>
+    <t>PY</t>
   </si>
 </sst>
 </file>
@@ -313,6 +334,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8913D47-F4A1-4594-AAA9-B59ADA751E77}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,22 +726,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -727,13 +749,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -747,10 +772,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,13 +789,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,13 +803,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -801,10 +826,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -818,10 +843,10 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,10 +860,10 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -852,10 +877,10 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,10 +894,10 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,10 +911,10 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -902,11 +927,11 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
-        <v>51</v>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -920,10 +945,10 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -934,13 +959,13 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,13 +976,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,16 +993,13 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -988,56 +1010,53 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,13 +1067,16 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,15 +1087,86 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
         <v>63</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>64</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
         <v>66</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F29" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1086,11 +1179,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,45 +1260,45 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,37 +1306,37 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,10 +1344,10 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1262,10 +1355,10 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,10 +1366,10 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,10 +1377,10 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,10 +1388,10 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,10 +1399,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,23 +1410,21 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,117 +1432,167 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>28</v>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
-        <v>64</v>
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E25" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F23" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
-  <mergeCells count="13">
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B5:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A21"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C9:C17"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C23:C25"/>
+  <autoFilter ref="A1:F26" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <mergeCells count="15">
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B6:B23"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A23"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C26:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEAF8616-8128-4DB1-AB02-CCAD1679FFD6}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E864DAF8-0A6E-4B5D-B868-1783ACB6E748}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="0" windowWidth="19230" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,12 +323,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -346,6 +355,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,7 +662,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,32 +695,32 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -715,50 +728,50 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -766,37 +779,37 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -804,151 +817,151 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="2" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="2" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="2" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="2" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -956,13 +969,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -970,19 +983,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -990,26 +1003,26 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="2" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1017,54 +1030,59 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="6" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F27" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B2:B6"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B25:B31"/>
     <mergeCell ref="A25:A31"/>
@@ -1073,11 +1091,6 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C11:C20"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B7:B24"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="B2:B6"/>
     <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E864DAF8-0A6E-4B5D-B868-1783ACB6E748}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DB96B57-FA19-4CA0-BFEB-9ADFD58ACD72}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="16515" yWindow="0" windowWidth="12390" windowHeight="15585" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -276,6 +276,54 @@
   </si>
   <si>
     <t>Postponed: Rain</t>
+  </si>
+  <si>
+    <t>Manager challenge: Stadium boundary call</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Manager challenge: Home run</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>detailedState literally blank</t>
+  </si>
+  <si>
+    <t>Manager challenge: Rules check</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>Umpire review: Fan interference</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>Manager challenge: Fair/found in outfield</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Completed Early: Wet Grounds</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>Umpire Challenge: Pitch Result</t>
+  </si>
+  <si>
+    <t>NJ</t>
   </si>
 </sst>
 </file>
@@ -311,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,22 +371,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,10 +394,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,11 +693,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,32 +730,32 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -728,50 +763,50 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -779,37 +814,37 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -817,281 +852,369 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E21" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E23" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="7" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E36" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="7" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D37" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E37" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="9" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E39" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F27" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F34" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A7:A31"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C11:C25"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B7:B31"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A7:A24"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C11:C20"/>
-    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DB96B57-FA19-4CA0-BFEB-9ADFD58ACD72}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE794D4B-0ADF-4665-8F5F-02C6FBC66402}"/>
   <bookViews>
-    <workbookView xWindow="16515" yWindow="0" windowWidth="12390" windowHeight="15585" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>NJ</t>
+  </si>
+  <si>
+    <t>Delayed Start</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>bees?</t>
   </si>
 </sst>
 </file>
@@ -693,11 +702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38:E39"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,10 +787,13 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,52 +801,52 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -842,37 +854,37 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -880,10 +892,10 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,10 +903,10 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -902,10 +914,10 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,10 +925,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,10 +936,10 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,10 +947,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,10 +958,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -957,10 +969,10 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,10 +980,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,10 +991,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,10 +1002,10 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,45 +1013,45 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
+      <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C26" s="5"/>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1047,10 +1059,10 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,98 +1070,98 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>28</v>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1157,64 +1169,75 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>77</v>
+      <c r="C37" s="5"/>
+      <c r="D37" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="2" t="s">
-        <v>76</v>
+      <c r="C38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F34" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F35" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A7:A31"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C11:C25"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B7:B31"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B8:B32"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A8:A32"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C12:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE794D4B-0ADF-4665-8F5F-02C6FBC66402}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{872CC6C0-7F4F-4023-BEF8-A042F53196A4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -332,7 +332,13 @@
     <t>PO</t>
   </si>
   <si>
-    <t>bees?</t>
+    <t>Delayed Start: Lightning</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>bees? Drying/preping field?</t>
   </si>
 </sst>
 </file>
@@ -403,6 +409,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,11 +712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,13 +797,10 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -801,10 +808,13 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,52 +822,52 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,37 +875,37 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,10 +913,10 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,10 +924,10 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,10 +935,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -936,10 +946,10 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,10 +957,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,10 +968,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,10 +979,10 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,10 +990,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,10 +1001,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,10 +1012,10 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1013,10 +1023,10 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,45 +1034,45 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,10 +1080,10 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,98 +1091,98 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>28</v>
+      <c r="C31" s="5"/>
+      <c r="D31" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="2" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1180,64 +1190,75 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>77</v>
+      <c r="C38" s="5"/>
+      <c r="D38" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="2" t="s">
-        <v>76</v>
+      <c r="C39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F35" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F36" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B8:B32"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A8:A32"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C12:C26"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A9:A33"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C13:C27"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B9:B33"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B2:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{872CC6C0-7F4F-4023-BEF8-A042F53196A4}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85184A4A-3B84-4659-87D4-9FC9F7B76A7E}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -339,6 +339,24 @@
   </si>
   <si>
     <t>bees? Drying/preping field?</t>
+  </si>
+  <si>
+    <t>Umpire review: Tag play</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>detailedState literally blank. Rangers shift challenge and Rays too many mound visits 5/20</t>
+  </si>
+  <si>
+    <t>Manager challenge: Fan Interference</t>
+  </si>
+  <si>
+    <t>MN</t>
   </si>
 </sst>
 </file>
@@ -712,11 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,10 +997,10 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,10 +1008,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,10 +1019,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,10 +1030,10 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,10 +1041,10 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,10 +1052,10 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,56 +1063,56 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="C28" s="5"/>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1102,98 +1120,93 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>28</v>
+      <c r="C32" s="5"/>
+      <c r="D32" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="2" t="s">
-        <v>67</v>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>92</v>
+        <v>17</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,20 +1217,23 @@
         <v>67</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>77</v>
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>64</v>
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,40 +1241,75 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F36" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F39" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A9:A33"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C13:C27"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B9:B33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B9:B36"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B37:B44"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A9:A36"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C13:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85184A4A-3B84-4659-87D4-9FC9F7B76A7E}"/>
+  <xr:revisionPtr revIDLastSave="345" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C03CDF6C-979A-46D1-8FC8-126DE7A3310E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>MN</t>
+  </si>
+  <si>
+    <t>Manager challenge: Catch/drop in outfield</t>
+  </si>
+  <si>
+    <t>MD</t>
   </si>
 </sst>
 </file>
@@ -730,11 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,10 +948,10 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,10 +959,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,10 +970,10 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -975,10 +981,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,10 +992,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -997,10 +1003,10 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,10 +1014,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,10 +1025,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1030,10 +1036,10 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,10 +1047,10 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,10 +1058,10 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,10 +1069,10 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,21 +1080,21 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
+      <c r="D28" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1096,34 +1102,34 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="E29" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="C30" s="5"/>
       <c r="E30" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,10 +1137,10 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,10 +1148,10 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,98 +1159,98 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>28</v>
+      <c r="C35" s="5"/>
+      <c r="D35" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="2" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,64 +1258,75 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>77</v>
+      <c r="C42" s="5"/>
+      <c r="D42" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="2" t="s">
-        <v>76</v>
+      <c r="C43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F39" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F40" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A9:A37"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C13:C30"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B9:B36"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B9:B37"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B37:B44"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A9:A36"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C13:C29"/>
+    <mergeCell ref="C31:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C03CDF6C-979A-46D1-8FC8-126DE7A3310E}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25F13948-B53D-48F9-BC46-497E550B7DE5}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -363,6 +363,24 @@
   </si>
   <si>
     <t>MD</t>
+  </si>
+  <si>
+    <t>Completed Early</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>FO</t>
+  </si>
+  <si>
+    <t>Futures Game (7 inning game)</t>
+  </si>
+  <si>
+    <t>Umpire review: Hit by pitch</t>
+  </si>
+  <si>
+    <t>NI</t>
   </si>
 </sst>
 </file>
@@ -433,10 +451,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,11 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,10 +1173,10 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1170,87 +1184,85 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>28</v>
+      <c r="C36" s="5"/>
+      <c r="D36" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="2" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,34 +1270,37 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>77</v>
+      <c r="C43" s="5"/>
+      <c r="D43" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,40 +1308,78 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F40" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F42" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A9:A37"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C13:C30"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B9:B37"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B9:B38"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="A9:A38"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C13:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25F13948-B53D-48F9-BC46-497E550B7DE5}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6041111F-0DC6-4C31-A116-98ECBE51D119}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>NI</t>
+  </si>
+  <si>
+    <t>Umpire review: Record keeping</t>
+  </si>
+  <si>
+    <t>NK</t>
   </si>
 </sst>
 </file>
@@ -451,6 +457,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -750,11 +760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,10 +1194,10 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,74 +1205,71 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>28</v>
+      <c r="C37" s="5"/>
+      <c r="D37" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="2" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,37 +1277,40 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>68</v>
+        <v>109</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1308,13 +1318,10 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1322,64 +1329,78 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>77</v>
+      <c r="C46" s="5"/>
+      <c r="D46" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="2" t="s">
-        <v>76</v>
+      <c r="C47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F42" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F43" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A9:A39"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C13:C30"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B9:B38"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B9:B39"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="A9:A38"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C13:C30"/>
+    <mergeCell ref="C31:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6041111F-0DC6-4C31-A116-98ECBE51D119}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53980134-EC4F-4FCD-A77F-2B924CF1DCB1}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -387,6 +387,27 @@
   </si>
   <si>
     <t>NK</t>
+  </si>
+  <si>
+    <t>Manager challenge</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>lodged ball. (gamepk 747008, top 9, no out)</t>
+  </si>
+  <si>
+    <t>Umpire review: Rules Check</t>
+  </si>
+  <si>
+    <t>NQ</t>
+  </si>
+  <si>
+    <t>Umpire review: Fair/foul in outfield</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -457,10 +478,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,11 +777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,35 +1153,38 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
+      <c r="D30" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="C31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1172,10 +1192,10 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,10 +1203,10 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1194,10 +1214,10 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,10 +1225,10 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,101 +1236,93 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>28</v>
+      <c r="C38" s="5"/>
+      <c r="D38" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="2" t="s">
-        <v>108</v>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>111</v>
+        <v>37</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C43" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,10 +1330,13 @@
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,37 +1344,37 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>77</v>
+      <c r="C47" s="5"/>
+      <c r="D47" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1367,40 +1382,78 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>75</v>
+        <v>110</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F43" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F46" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A9:A39"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A9:A42"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C13:C30"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C13:C31"/>
+    <mergeCell ref="C32:C40"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B9:B39"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B9:B42"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C31:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53980134-EC4F-4FCD-A77F-2B924CF1DCB1}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{097011A4-391C-4FC0-93CE-2ECB8D15C125}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -170,12 +170,6 @@
     <t>Mixed with Delayed/IO</t>
   </si>
   <si>
-    <t>=UR</t>
-  </si>
-  <si>
-    <t>=TR</t>
-  </si>
-  <si>
     <t>Lasts roughly 5-15 minutes</t>
   </si>
   <si>
@@ -408,6 +402,12 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Umpire review: Catch/drop in outfield</t>
+  </si>
+  <si>
+    <t>ND</t>
   </si>
 </sst>
 </file>
@@ -777,11 +777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,10 +851,10 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -862,10 +862,10 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,13 +873,13 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,10 +898,10 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,10 +978,10 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -989,10 +989,10 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1000,10 +1000,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,10 +1022,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,10 +1033,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1044,10 +1044,10 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1055,10 +1055,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1066,10 +1066,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,10 +1077,10 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1088,10 +1088,10 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,10 +1099,10 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,10 +1110,10 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,10 +1121,10 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1143,10 +1143,10 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,13 +1154,13 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1168,10 +1168,10 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,10 +1192,10 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="2" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,10 +1203,10 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,10 +1214,10 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,10 +1225,10 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,10 +1236,10 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,10 +1247,10 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,10 +1258,10 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,74 +1269,67 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>28</v>
+      <c r="C41" s="5"/>
+      <c r="D41" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="2" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,37 +1337,40 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1382,78 +1378,89 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>77</v>
+      <c r="C50" s="5"/>
+      <c r="D50" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="2" t="s">
-        <v>76</v>
+      <c r="C51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="4" t="s">
-        <v>78</v>
+      <c r="D52" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F46" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F47" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A9:A42"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C13:C31"/>
-    <mergeCell ref="C32:C40"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B9:B42"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B9:B43"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A9:A43"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C13:C31"/>
+    <mergeCell ref="C32:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="377" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{097011A4-391C-4FC0-93CE-2ECB8D15C125}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7339B3A-9FF2-49D6-844D-1271C1D08681}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>ND</t>
+  </si>
+  <si>
+    <t>Manager challenge: Timing play</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -777,11 +783,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C12"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,10 +1061,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1066,10 +1072,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,10 +1083,10 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1088,10 +1094,10 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,10 +1105,10 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,10 +1116,10 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,10 +1127,10 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1132,70 +1138,70 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
+      <c r="D29" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
+      <c r="D31" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="E32" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,10 +1209,10 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,10 +1220,10 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,10 +1231,10 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,10 +1242,10 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,10 +1253,10 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,10 +1264,10 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,10 +1275,10 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1280,70 +1286,67 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="2" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>28</v>
+      <c r="C42" s="5"/>
+      <c r="D42" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="2" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,37 +1354,40 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1389,13 +1395,10 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,64 +1406,78 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>75</v>
+      <c r="C51" s="5"/>
+      <c r="D51" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="2" t="s">
-        <v>74</v>
+      <c r="C52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F47" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F48" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="A9:A44"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C13:C32"/>
+    <mergeCell ref="C33:C42"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B9:B43"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B9:B44"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A9:A43"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C13:C31"/>
-    <mergeCell ref="C32:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7339B3A-9FF2-49D6-844D-1271C1D08681}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DC8858C-D60C-461A-9147-0DC134F9DA2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -414,6 +414,18 @@
   </si>
   <si>
     <t>MM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Rain. Meaningless Game 162</t>
   </si>
 </sst>
 </file>
@@ -783,11 +795,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,23 +1473,39 @@
         <v>63</v>
       </c>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F48" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B9:B44"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B2:B8"/>
     <mergeCell ref="C48:C51"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="A45:A54"/>
     <mergeCell ref="C52:C54"/>
     <mergeCell ref="A9:A44"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="C13:C32"/>
     <mergeCell ref="C33:C42"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B9:B44"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="B45:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DC8858C-D60C-461A-9147-0DC134F9DA2A}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFADC7FB-0B08-4408-8322-74BD8B567CC1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="132">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -426,6 +426,15 @@
   </si>
   <si>
     <t>Rain. Meaningless Game 162</t>
+  </si>
+  <si>
+    <t>Manager challenge: Touching a base</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>2024 ALCS Game 3, Top 8, 2 Outs, Stanton HR, Touch First Base</t>
   </si>
 </sst>
 </file>
@@ -795,11 +804,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,10 +1005,13 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>130</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1007,10 +1019,10 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,10 +1030,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,10 +1041,10 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,10 +1052,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,10 +1063,10 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,10 +1074,10 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,10 +1085,10 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,10 +1096,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,10 +1107,10 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,10 +1118,10 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,10 +1129,10 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1128,10 +1140,10 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1139,10 +1151,10 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,10 +1162,10 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,70 +1173,70 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
+      <c r="D30" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
+      <c r="D32" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="E32" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="C33" s="5"/>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,10 +1244,10 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,10 +1255,10 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,10 +1266,10 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,10 +1277,10 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1276,10 +1288,10 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1287,10 +1299,10 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,10 +1310,10 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,70 +1321,67 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="2" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>28</v>
+      <c r="C43" s="5"/>
+      <c r="D43" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="2" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1380,37 +1389,40 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="2" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1418,13 +1430,10 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,80 +1441,94 @@
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>75</v>
+      <c r="C52" s="5"/>
+      <c r="D52" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="2" t="s">
-        <v>74</v>
+      <c r="C53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="4" t="s">
-        <v>76</v>
+      <c r="D54" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F48" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F49" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="14">
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A9:A45"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C13:C33"/>
+    <mergeCell ref="C34:C43"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="B46:B56"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B9:B44"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B9:B45"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="A9:A44"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C13:C32"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="A45:A55"/>
-    <mergeCell ref="B45:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/MLB-Stats/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/at_bat/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="392" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFADC7FB-0B08-4408-8322-74BD8B567CC1}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDE08C15-0535-4192-9B39-0DB6EEE1708E}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -435,6 +435,33 @@
   </si>
   <si>
     <t>2024 ALCS Game 3, Top 8, 2 Outs, Stanton HR, Touch First Base</t>
+  </si>
+  <si>
+    <t>Final: Tied</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>Spring Training</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Rain. Spring Training</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Inclement Weather. Spring Training</t>
+  </si>
+  <si>
+    <t>Player challenge: Pitch Result</t>
+  </si>
+  <si>
+    <t>MJ</t>
   </si>
 </sst>
 </file>
@@ -505,6 +532,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,23 +835,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="33.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -840,7 +871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -857,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -873,7 +904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -884,7 +915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -895,7 +926,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -909,7 +940,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -920,7 +951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -931,7 +962,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -949,7 +980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -962,7 +993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -973,7 +1004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -987,7 +1018,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -1000,7 +1031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1014,7 +1045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1025,7 +1056,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1036,7 +1067,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1047,7 +1078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1058,7 +1089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1069,7 +1100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1080,7 +1111,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1091,442 +1122,492 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
+      <c r="D31" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
+      <c r="D33" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="C34" s="5"/>
       <c r="E34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="2" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>28</v>
+      <c r="C44" s="5"/>
+      <c r="D44" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="2" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>75</v>
+      <c r="C53" s="5"/>
+      <c r="D53" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="D55" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>128</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F49" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
-  <mergeCells count="14">
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A9:A45"/>
+  <autoFilter ref="A1:F50" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <mergeCells count="16">
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="B47:B60"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A9:A46"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C13:C33"/>
-    <mergeCell ref="C34:C43"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="B46:B56"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C13:C34"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C58:C60"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B9:B45"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B9:B46"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B2:B8"/>
   </mergeCells>

--- a/csv/game states.xlsx
+++ b/csv/game states.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e8b29edc4376667/Projects/Python/at_bat/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDE08C15-0535-4192-9B39-0DB6EEE1708E}"/>
+  <xr:revisionPtr revIDLastSave="421" documentId="8_{1E7C1C6B-8C31-4479-B74A-66C136A4727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A0C74FE-86B6-4C81-A24D-E797EDC25FC0}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F5CA1E43-766A-4086-8122-BB1D980A4810}"/>
   </bookViews>
   <sheets>
     <sheet name="nonsortable" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nonsortable!$A$1:$F$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="143">
   <si>
     <t>abstractGameState</t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>MJ</t>
+  </si>
+  <si>
+    <t>Game Over: Tied</t>
+  </si>
+  <si>
+    <t>OT</t>
   </si>
 </sst>
 </file>
@@ -512,10 +518,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -872,10 +878,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -889,9 +895,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -905,9 +911,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>71</v>
       </c>
@@ -916,9 +922,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>95</v>
       </c>
@@ -927,9 +933,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>93</v>
       </c>
@@ -941,9 +947,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
@@ -952,9 +958,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="2" t="s">
         <v>69</v>
       </c>
@@ -963,13 +969,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
@@ -981,9 +987,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -994,9 +1000,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1005,9 +1011,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1019,9 +1025,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1032,9 +1038,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2" t="s">
         <v>129</v>
       </c>
@@ -1046,9 +1052,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1057,9 +1063,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2" t="s">
         <v>104</v>
       </c>
@@ -1068,9 +1074,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1079,9 +1085,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1090,9 +1096,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1101,9 +1107,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="2" t="s">
         <v>79</v>
       </c>
@@ -1112,9 +1118,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="2" t="s">
         <v>45</v>
       </c>
@@ -1123,9 +1129,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="2" t="s">
         <v>139</v>
       </c>
@@ -1134,9 +1140,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="2" t="s">
         <v>123</v>
       </c>
@@ -1145,9 +1151,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="2" t="s">
         <v>102</v>
       </c>
@@ -1156,9 +1162,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="2" t="s">
         <v>87</v>
       </c>
@@ -1167,9 +1173,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="2" t="s">
         <v>68</v>
       </c>
@@ -1178,9 +1184,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
@@ -1189,9 +1195,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="2" t="s">
         <v>57</v>
       </c>
@@ -1200,9 +1206,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="2" t="s">
         <v>49</v>
       </c>
@@ -1211,9 +1217,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="2" t="s">
         <v>59</v>
       </c>
@@ -1222,9 +1228,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="2" t="s">
         <v>83</v>
       </c>
@@ -1233,9 +1239,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="E32" s="2" t="s">
         <v>100</v>
       </c>
@@ -1244,9 +1250,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="2" t="s">
         <v>114</v>
       </c>
@@ -1258,9 +1264,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="E34" s="2" t="s">
         <v>81</v>
       </c>
@@ -1269,9 +1275,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -1282,9 +1288,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2" t="s">
         <v>121</v>
       </c>
@@ -1293,9 +1299,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="2" t="s">
         <v>51</v>
       </c>
@@ -1304,9 +1310,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="2" t="s">
         <v>91</v>
       </c>
@@ -1315,9 +1321,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="2" t="s">
         <v>110</v>
       </c>
@@ -1326,9 +1332,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="2" t="s">
         <v>112</v>
       </c>
@@ -1337,9 +1343,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="2" t="s">
         <v>85</v>
       </c>
@@ -1348,9 +1354,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="2" t="s">
         <v>119</v>
       </c>
@@ -1359,9 +1365,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
@@ -1370,9 +1376,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="2" t="s">
         <v>117</v>
       </c>
@@ -1381,12 +1387,12 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1395,25 +1401,25 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1427,9 +1433,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="2" t="s">
         <v>106</v>
       </c>
@@ -1441,9 +1447,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="2" t="s">
         <v>65</v>
       </c>
@@ -1452,164 +1458,178 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="2" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="2" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="2" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="2" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="2" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="4" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="2" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="2" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F50" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
+  <autoFilter ref="A1:F51" xr:uid="{8B849384-B473-4938-862B-0224328C5BC9}"/>
   <mergeCells count="16">
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="B47:B60"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A9:A46"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C13:C34"/>
-    <mergeCell ref="C35:C44"/>
-    <mergeCell ref="A47:A58"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C58:C60"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="B9:B46"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B2:B8"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="B47:B61"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="A9:A46"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C34"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C47:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
